--- a/JoesDrive_V2 BOM.xlsx
+++ b/JoesDrive_V2 BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42c44b83a4bbc46/Documents/3D Printing/Robotics and Androids/BB8/James BB8 Project v5 JDV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="11_BE9DE99AA47B2B8EE8586A6619BF5A40F3477B36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E37FDFA-7215-407B-AB34-5A724F0196BC}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="11_BE9DE99AA47B2B8EE8586A6619BF5A40F3477B36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{594AB6A1-9D2B-4E6F-B2A4-94A8A0C8299C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$2:$Z$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$2:$Z$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="189">
   <si>
     <t>BOM</t>
   </si>
@@ -960,9 +960,6 @@
     <t>https://www.adafruit.com/product/5000</t>
   </si>
   <si>
-    <t>https://www.andymark.com/products/hall-effect-encoder-cable-with-4-pin-connector</t>
-  </si>
-  <si>
     <t>SPARKFUN Electronics</t>
   </si>
   <si>
@@ -978,9 +975,6 @@
     <t>https://www.sparkfun.com/products/15109</t>
   </si>
   <si>
-    <t>Adafruit Feather Proto M0</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/2771</t>
   </si>
   <si>
@@ -988,6 +982,9 @@
   </si>
   <si>
     <t>Pot (200k)</t>
+  </si>
+  <si>
+    <t>Or you can Purchase Adafruit Feather Proto M0</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1107,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,6 +1136,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBDBDB"/>
         <bgColor rgb="FFDBDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFDBDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1393,7 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1431,18 +1440,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,9 +1580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1593,6 +1587,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,23 +1631,41 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1868,23 +1883,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z977"/>
+  <dimension ref="A1:Z976"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G116" sqref="G116"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="57" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="0.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
@@ -1892,17 +1907,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1921,7 +1936,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+    <row r="2" spans="1:26" ht="25.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1945,8 +1960,8 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6">
-        <f>SUM(E109,E100,E96,E77,E47,E44,E40,E14)</f>
-        <v>1261.1500000000001</v>
+        <f>SUM(E108,E99,E95,E76,E46,E40,E14)</f>
+        <v>1224.6500000000001</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1966,7 +1981,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="19.5" customHeight="1">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1997,31 +2012,31 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="77">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="78">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="79">
         <v>24.95</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="79">
         <f t="shared" ref="E4:E13" si="0">D4*C4</f>
         <v>24.95</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="16" t="str">
+      <c r="G4" s="78"/>
+      <c r="H4" s="81" t="str">
         <f t="shared" ref="H4:H9" si="1">IF(F4&gt;0,LEFT(F4,20),"ZZZ")</f>
         <v>https://www.adafruit</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2040,56 +2055,56 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" s="66" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="80">
+    <row r="5" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="82">
         <v>1</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="83">
         <v>1</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="84">
         <v>19.95</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="79">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-      <c r="F5" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="81"/>
+      <c r="F5" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="83"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="22" t="str">
+      <c r="G6" s="15"/>
+      <c r="H6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>https://www.adafruit</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2109,31 +2124,31 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <v>21.95</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>43.9</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="22" t="str">
+      <c r="G7" s="15"/>
+      <c r="H7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>https://www.adafruit</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2153,31 +2168,31 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>6.95</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>6.95</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="22" t="str">
+      <c r="G8" s="15"/>
+      <c r="H8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>https://www.adafruit</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2197,31 +2212,31 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <v>8.9499999999999993</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>8.9499999999999993</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="22" t="str">
+      <c r="G9" s="15"/>
+      <c r="H9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>https://www.adafruit</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2240,145 +2255,145 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="35">
         <v>2</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="33">
         <v>2</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="36">
         <v>0.95</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="36">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:26" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A11" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="35">
         <v>2</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="33">
         <v>2</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="36">
         <v>4.95</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:26" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A12" s="38" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A12" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="35">
         <v>1</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="33">
         <v>1</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <v>5.95</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:26" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A13" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="35">
         <v>2</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="33">
         <v>2</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="36">
         <v>7.95</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="36">
         <f t="shared" si="0"/>
         <v>15.9</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="37"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26">
+      <c r="A14" s="34"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22">
         <f>SUM(E4:E13)</f>
         <v>140.35000000000002</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="33"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2398,29 +2413,29 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16">
         <v>112.99</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <f t="shared" ref="E16:E31" si="2">D16*C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="22" t="str">
+      <c r="G16" s="33"/>
+      <c r="H16" s="18" t="str">
         <f t="shared" ref="H16:H31" si="3">IF(F16&gt;0,LEFT(F16,20),"ZZZ")</f>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2439,78 +2454,78 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A17" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="35">
         <v>1</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="40">
+      <c r="C17" s="33"/>
+      <c r="D17" s="36">
         <v>60</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="35">
         <v>1</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="33">
         <v>1</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="36">
         <v>100</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="37"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="14">
         <v>1</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="15">
         <v>1</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>21.99</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <f t="shared" si="2"/>
         <v>21.99</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="22" t="str">
+      <c r="G19" s="33"/>
+      <c r="H19" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2530,31 +2545,31 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>4</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="15">
         <v>1</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>9.7899999999999991</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <f t="shared" si="2"/>
         <v>9.7899999999999991</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="22" t="str">
+      <c r="G20" s="33"/>
+      <c r="H20" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2574,31 +2589,31 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>1</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="15">
         <v>1</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>16.989999999999998</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <f t="shared" si="2"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="22" t="str">
+      <c r="G21" s="33"/>
+      <c r="H21" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2618,31 +2633,31 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="35">
         <v>1</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="33">
         <v>0</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="36">
         <v>9.99</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="22" t="str">
+      <c r="G22" s="33"/>
+      <c r="H22" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2662,31 +2677,31 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>1</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="15">
         <v>1</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>4.96</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <f t="shared" si="2"/>
         <v>4.96</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="22" t="str">
+      <c r="G23" s="33"/>
+      <c r="H23" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2706,31 +2721,31 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="18">
+      <c r="A24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="14">
         <v>1</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="36">
         <v>7.42</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="16">
         <f t="shared" si="2"/>
         <v>7.42</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="22" t="str">
+      <c r="G24" s="33"/>
+      <c r="H24" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2750,31 +2765,31 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="35">
         <v>1</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="33">
         <v>1</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="36">
         <v>23</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="16">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="22" t="str">
+      <c r="G25" s="33"/>
+      <c r="H25" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2794,31 +2809,31 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="14">
         <v>1</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="15">
         <v>1</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="16">
         <v>5.55</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="16">
         <f t="shared" si="2"/>
         <v>5.55</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="22" t="str">
+      <c r="G26" s="33"/>
+      <c r="H26" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2838,31 +2853,31 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="18">
+      <c r="A27" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="15">
         <v>2</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>42.99</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <f t="shared" si="2"/>
         <v>85.98</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="22" t="str">
+      <c r="G27" s="33"/>
+      <c r="H27" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2882,31 +2897,31 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="14">
         <v>2</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="15">
         <v>2</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="16">
         <v>17.71</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="16">
         <f t="shared" si="2"/>
         <v>35.42</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="22" t="str">
+      <c r="G28" s="33"/>
+      <c r="H28" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2926,31 +2941,31 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="14">
         <v>1</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="15">
         <v>1</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="16">
         <v>11.99</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <f t="shared" si="2"/>
         <v>11.99</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="22" t="str">
+      <c r="G29" s="33"/>
+      <c r="H29" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I29" s="19"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2970,31 +2985,31 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="14">
         <v>1</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="15">
         <v>1</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="16">
         <v>5.39</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <f t="shared" si="2"/>
         <v>5.39</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="22" t="str">
+      <c r="G30" s="33"/>
+      <c r="H30" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I30" s="19"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3014,31 +3029,31 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="14">
         <v>1</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="15">
         <v>1</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="16">
         <v>29.29</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <f t="shared" si="2"/>
         <v>29.29</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="22" t="str">
+      <c r="G31" s="33"/>
+      <c r="H31" s="18" t="str">
         <f t="shared" si="3"/>
         <v>https://www.amazon.c</v>
       </c>
-      <c r="I31" s="19"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3058,28 +3073,28 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="35">
         <v>2</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="33">
         <v>2</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="36">
         <v>24.17</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <f t="shared" ref="E32:E34" si="4">D32*C32</f>
         <v>48.34</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="76"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="19"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3099,28 +3114,28 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="35">
         <v>1</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="33">
         <v>1</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="36">
         <v>5.99</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="16">
         <f>D33*C33</f>
         <v>5.99</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="76"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="19"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3140,28 +3155,28 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="35">
         <v>1</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="33">
         <v>1</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="36">
         <v>11.99</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="36">
         <f t="shared" si="4"/>
         <v>11.99</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="19"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3181,28 +3196,28 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="35">
         <v>1</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="33">
         <v>1</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="36">
         <v>5.6</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="36">
         <f t="shared" ref="E35" si="5">D35*C35</f>
         <v>5.6</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="76"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="19"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3221,100 +3236,100 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" s="51" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:26" s="47" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A36" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="35">
         <v>1</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="33">
         <v>1</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="36">
         <v>8.99</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="36">
         <f t="shared" ref="E36:E38" si="6">D36*C36</f>
         <v>8.99</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="37"/>
-    </row>
-    <row r="37" spans="1:26" s="51" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A37" s="38" t="s">
+      <c r="G36" s="72"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="1:26" s="47" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A37" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="35">
         <v>1</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="33">
         <v>1</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="36">
         <v>7.99</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="36">
         <f t="shared" si="6"/>
         <v>7.99</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="37"/>
-    </row>
-    <row r="38" spans="1:26" s="51" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A38" s="38" t="s">
+      <c r="G37" s="72"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="1:26" s="47" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A38" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="35">
         <v>1</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="33">
         <v>1</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="36">
         <v>7.99</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="36">
         <f t="shared" si="6"/>
         <v>7.99</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="37"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="33"/>
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="14">
         <v>1</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="15">
         <v>1</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="16">
         <v>5</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="16">
         <v>5</v>
       </c>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="G39" s="78"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="19"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3334,31 +3349,31 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26">
+      <c r="A40" s="34"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22">
         <f>SUM(E16:E39)</f>
         <v>459.66000000000008</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="28"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="33"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="29"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3378,31 +3393,31 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="14">
         <v>1</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="16">
         <v>31.5</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="16">
         <f>D42*C42</f>
         <v>31.5</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="22" t="str">
+      <c r="G42" s="15"/>
+      <c r="H42" s="18" t="str">
         <f>IF(F42&gt;0,LEFT(F42,20),"ZZZ")</f>
         <v>https://www.andymark</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3421,44 +3436,41 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A43" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="14">
         <v>1</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="16">
         <v>5</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="16">
         <v>5</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F43" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="37"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A44" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40">
-        <f>SUM(E42:E43)</f>
-        <v>36.5</v>
-      </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="19"/>
+      <c r="A44" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3478,17 +3490,31 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A45" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="33"/>
+      <c r="A45" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="14">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <v>2</v>
+      </c>
+      <c r="D45" s="16">
+        <v>29</v>
+      </c>
+      <c r="E45" s="16">
+        <f>D45*C45</f>
+        <v>58</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="68"/>
+      <c r="H45" s="40" t="str">
+        <f>IF(F45&gt;0,LEFT(F45,20),"ZZZ")</f>
+        <v>https://www.dfrobot.</v>
+      </c>
+      <c r="I45" s="15"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3508,31 +3534,18 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A46" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="18">
-        <v>2</v>
-      </c>
-      <c r="C46" s="19">
-        <v>2</v>
-      </c>
-      <c r="D46" s="20">
-        <v>29</v>
-      </c>
-      <c r="E46" s="20">
-        <f>D46*C46</f>
+      <c r="A46" s="34"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16">
+        <f>SUM(E45)</f>
         <v>58</v>
       </c>
-      <c r="F46" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="72"/>
-      <c r="H46" s="44" t="str">
-        <f>IF(F46&gt;0,LEFT(F46,20),"ZZZ")</f>
-        <v>https://www.dfrobot.</v>
-      </c>
-      <c r="I46" s="19"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3552,18 +3565,17 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A47" s="38"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20">
-        <f>SUM(E46)</f>
-        <v>58</v>
-      </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="19"/>
+      <c r="A47" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -3583,17 +3595,31 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A48" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="33"/>
+      <c r="A48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="14">
+        <v>6</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="E48" s="16">
+        <f t="shared" ref="E48:E49" si="7">D48*C48</f>
+        <v>2.4</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="68"/>
+      <c r="H48" s="18" t="str">
+        <f t="shared" ref="H48:H75" si="8">IF(F48&gt;0,LEFT(F48,20),"ZZZ")</f>
+        <v>https://www.mcmaster</v>
+      </c>
+      <c r="I48" s="15"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3613,31 +3639,31 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="18">
-        <v>6</v>
-      </c>
-      <c r="C49" s="19">
+      <c r="A49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="14">
+        <v>8</v>
+      </c>
+      <c r="C49" s="15">
         <v>1</v>
       </c>
-      <c r="D49" s="20">
-        <v>2.4</v>
-      </c>
-      <c r="E49" s="20">
-        <f t="shared" ref="E49:E50" si="7">D49*C49</f>
-        <v>2.4</v>
-      </c>
-      <c r="F49" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="22" t="str">
-        <f t="shared" ref="H49:H76" si="8">IF(F49&gt;0,LEFT(F49,20),"ZZZ")</f>
+      <c r="D49" s="16">
+        <v>2.94</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" si="7"/>
+        <v>2.94</v>
+      </c>
+      <c r="F49" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="68"/>
+      <c r="H49" s="18" t="str">
+        <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I49" s="19"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3657,31 +3683,30 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="18">
-        <v>8</v>
-      </c>
-      <c r="C50" s="19">
+      <c r="A50" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="35">
+        <v>25</v>
+      </c>
+      <c r="C50" s="33">
         <v>1</v>
       </c>
-      <c r="D50" s="20">
-        <v>2.94</v>
-      </c>
-      <c r="E50" s="20">
-        <f t="shared" si="7"/>
-        <v>2.94</v>
-      </c>
-      <c r="F50" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="72"/>
-      <c r="H50" s="22" t="str">
+      <c r="D50" s="36">
+        <v>2.19</v>
+      </c>
+      <c r="E50" s="36">
+        <v>2.19</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="68"/>
+      <c r="H50" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I50" s="19"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3701,30 +3726,31 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="39">
-        <v>25</v>
-      </c>
-      <c r="C51" s="37">
+      <c r="A51" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="14">
+        <v>100</v>
+      </c>
+      <c r="C51" s="15">
         <v>1</v>
       </c>
-      <c r="D51" s="40">
-        <v>2.19</v>
-      </c>
-      <c r="E51" s="40">
-        <v>2.19</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="22" t="str">
+      <c r="D51" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="E51" s="16">
+        <f t="shared" ref="E51:E75" si="9">D51*C51</f>
+        <v>1.2</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="68"/>
+      <c r="H51" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I51" s="19"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3744,31 +3770,31 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A52" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="18">
-        <v>100</v>
-      </c>
-      <c r="C52" s="19">
+      <c r="A52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="14">
+        <v>2</v>
+      </c>
+      <c r="C52" s="15">
         <v>1</v>
       </c>
-      <c r="D52" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="E52" s="20">
-        <f t="shared" ref="E52:E76" si="9">D52*C52</f>
-        <v>1.2</v>
-      </c>
-      <c r="F52" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="22" t="str">
+      <c r="D52" s="16">
+        <v>3.77</v>
+      </c>
+      <c r="E52" s="16">
+        <f t="shared" si="9"/>
+        <v>3.77</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="68"/>
+      <c r="H52" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I52" s="19"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3788,31 +3814,31 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A53" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="18">
-        <v>2</v>
-      </c>
-      <c r="C53" s="19">
-        <v>1</v>
-      </c>
-      <c r="D53" s="20">
-        <v>3.77</v>
-      </c>
-      <c r="E53" s="20">
+      <c r="A53" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="14">
+        <v>4</v>
+      </c>
+      <c r="C53" s="15">
+        <v>4</v>
+      </c>
+      <c r="D53" s="16">
+        <v>3.59</v>
+      </c>
+      <c r="E53" s="16">
         <f t="shared" si="9"/>
-        <v>3.77</v>
-      </c>
-      <c r="F53" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="72"/>
-      <c r="H53" s="22" t="str">
+        <v>14.36</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I53" s="19"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3832,31 +3858,31 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A54" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="18">
-        <v>4</v>
-      </c>
-      <c r="C54" s="19">
-        <v>4</v>
-      </c>
-      <c r="D54" s="20">
-        <v>3.59</v>
-      </c>
-      <c r="E54" s="20">
+      <c r="A54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1</v>
+      </c>
+      <c r="C54" s="15">
+        <v>1</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E54" s="16">
         <f t="shared" si="9"/>
-        <v>14.36</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="22" t="str">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I54" s="19"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3876,31 +3902,31 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A55" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="18">
+      <c r="A55" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="14">
         <v>1</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="15">
         <v>1</v>
       </c>
-      <c r="D55" s="20">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E55" s="20">
+      <c r="D55" s="16">
+        <v>2.65</v>
+      </c>
+      <c r="E55" s="16">
         <f t="shared" si="9"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="22" t="str">
+        <v>2.65</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I55" s="19"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3920,31 +3946,31 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A56" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="18">
+      <c r="A56" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="14">
+        <v>8</v>
+      </c>
+      <c r="C56" s="15">
         <v>1</v>
       </c>
-      <c r="C56" s="19">
-        <v>1</v>
-      </c>
-      <c r="D56" s="20">
-        <v>2.65</v>
-      </c>
-      <c r="E56" s="20">
+      <c r="D56" s="16">
+        <v>8.49</v>
+      </c>
+      <c r="E56" s="16">
         <f t="shared" si="9"/>
-        <v>2.65</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="22" t="str">
+        <v>8.49</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I56" s="19"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3964,31 +3990,31 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A57" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="18">
-        <v>8</v>
-      </c>
-      <c r="C57" s="19">
+      <c r="A57" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="14">
+        <v>4</v>
+      </c>
+      <c r="C57" s="15">
         <v>1</v>
       </c>
-      <c r="D57" s="20">
-        <v>8.49</v>
-      </c>
-      <c r="E57" s="20">
+      <c r="D57" s="16">
+        <v>6.03</v>
+      </c>
+      <c r="E57" s="16">
         <f t="shared" si="9"/>
-        <v>8.49</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="22" t="str">
+        <v>6.03</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I57" s="19"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4008,31 +4034,31 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A58" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="18">
+      <c r="A58" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="14">
         <v>4</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="15">
         <v>1</v>
       </c>
-      <c r="D58" s="20">
-        <v>6.03</v>
-      </c>
-      <c r="E58" s="20">
+      <c r="D58" s="16">
+        <v>3.72</v>
+      </c>
+      <c r="E58" s="16">
         <f t="shared" si="9"/>
-        <v>6.03</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="22" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I58" s="19"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4052,31 +4078,31 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A59" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="18">
+      <c r="A59" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="14">
         <v>4</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="15">
         <v>1</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="16">
         <v>3.72</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="16">
         <f t="shared" si="9"/>
         <v>3.72</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="22" t="str">
+      <c r="F59" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I59" s="19"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4096,31 +4122,31 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A60" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="18">
+      <c r="A60" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="14">
         <v>4</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="15">
         <v>1</v>
       </c>
-      <c r="D60" s="20">
-        <v>3.72</v>
-      </c>
-      <c r="E60" s="20">
+      <c r="D60" s="16">
+        <v>4.41</v>
+      </c>
+      <c r="E60" s="16">
         <f t="shared" si="9"/>
-        <v>3.72</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="22" t="str">
+        <v>4.41</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I60" s="19"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4140,31 +4166,31 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A61" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="18">
-        <v>4</v>
-      </c>
-      <c r="C61" s="19">
+      <c r="A61" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="35">
+        <v>12</v>
+      </c>
+      <c r="C61" s="15">
         <v>1</v>
       </c>
-      <c r="D61" s="20">
-        <v>4.41</v>
-      </c>
-      <c r="E61" s="20">
+      <c r="D61" s="16">
+        <v>5.42</v>
+      </c>
+      <c r="E61" s="16">
         <f t="shared" si="9"/>
-        <v>4.41</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="22" t="str">
+        <v>5.42</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I61" s="19"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4184,31 +4210,31 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A62" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="39">
-        <v>12</v>
-      </c>
-      <c r="C62" s="19">
+      <c r="A62" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="14">
+        <v>8</v>
+      </c>
+      <c r="C62" s="15">
         <v>1</v>
       </c>
-      <c r="D62" s="20">
-        <v>5.42</v>
-      </c>
-      <c r="E62" s="20">
+      <c r="D62" s="16">
+        <v>3.39</v>
+      </c>
+      <c r="E62" s="16">
         <f t="shared" si="9"/>
-        <v>5.42</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="22" t="str">
+        <v>3.39</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I62" s="19"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4228,31 +4254,31 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A63" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="18">
-        <v>8</v>
-      </c>
-      <c r="C63" s="19">
+      <c r="A63" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="14">
+        <v>4</v>
+      </c>
+      <c r="C63" s="15">
         <v>1</v>
       </c>
-      <c r="D63" s="20">
-        <v>3.39</v>
-      </c>
-      <c r="E63" s="20">
+      <c r="D63" s="16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E63" s="16">
         <f t="shared" si="9"/>
-        <v>3.39</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="22" t="str">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I63" s="19"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4272,31 +4298,31 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A64" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="18">
-        <v>4</v>
-      </c>
-      <c r="C64" s="19">
+      <c r="A64" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="14">
+        <v>6</v>
+      </c>
+      <c r="C64" s="15">
         <v>1</v>
       </c>
-      <c r="D64" s="20">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="E64" s="20">
+      <c r="D64" s="16">
+        <v>6.21</v>
+      </c>
+      <c r="E64" s="16">
         <f t="shared" si="9"/>
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="22" t="str">
+        <v>6.21</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I64" s="19"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -4316,31 +4342,31 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A65" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="18">
-        <v>6</v>
-      </c>
-      <c r="C65" s="19">
+      <c r="A65" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="14">
+        <v>4</v>
+      </c>
+      <c r="C65" s="15">
         <v>1</v>
       </c>
-      <c r="D65" s="20">
-        <v>6.21</v>
-      </c>
-      <c r="E65" s="20">
+      <c r="D65" s="16">
+        <v>3.57</v>
+      </c>
+      <c r="E65" s="16">
         <f t="shared" si="9"/>
-        <v>6.21</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="22" t="str">
+        <v>3.57</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I65" s="19"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -4360,31 +4386,31 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A66" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="18">
-        <v>4</v>
-      </c>
-      <c r="C66" s="19">
+      <c r="A66" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="14">
+        <v>11</v>
+      </c>
+      <c r="C66" s="15">
         <v>1</v>
       </c>
-      <c r="D66" s="20">
-        <v>3.57</v>
-      </c>
-      <c r="E66" s="20">
+      <c r="D66" s="16">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E66" s="16">
         <f t="shared" si="9"/>
-        <v>3.57</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="22" t="str">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I66" s="19"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -4404,31 +4430,31 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A67" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="18">
-        <v>11</v>
-      </c>
-      <c r="C67" s="19">
+      <c r="A67" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="14">
         <v>1</v>
       </c>
-      <c r="D67" s="20">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="E67" s="20">
+      <c r="C67" s="15">
+        <v>1</v>
+      </c>
+      <c r="D67" s="16">
+        <v>6.13</v>
+      </c>
+      <c r="E67" s="16">
         <f t="shared" si="9"/>
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="22" t="str">
+        <v>6.13</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I67" s="19"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -4448,31 +4474,31 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A68" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="18">
+      <c r="A68" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="14">
+        <v>2</v>
+      </c>
+      <c r="C68" s="15">
         <v>1</v>
       </c>
-      <c r="C68" s="19">
-        <v>1</v>
-      </c>
-      <c r="D68" s="20">
-        <v>6.13</v>
-      </c>
-      <c r="E68" s="20">
+      <c r="D68" s="16">
+        <v>1.41</v>
+      </c>
+      <c r="E68" s="16">
         <f t="shared" si="9"/>
-        <v>6.13</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="22" t="str">
+        <v>1.41</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I68" s="19"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -4492,31 +4518,31 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A69" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="18">
+      <c r="A69" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="42">
         <v>2</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="42">
         <v>1</v>
       </c>
-      <c r="D69" s="20">
-        <v>1.41</v>
-      </c>
-      <c r="E69" s="20">
+      <c r="D69" s="43">
+        <v>6.81</v>
+      </c>
+      <c r="E69" s="43">
         <f t="shared" si="9"/>
-        <v>1.41</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="22" t="str">
+        <v>6.81</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="H69" s="45" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I69" s="19"/>
+      <c r="I69" s="42"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -4536,31 +4562,31 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="46">
-        <v>2</v>
-      </c>
-      <c r="C70" s="46">
+      <c r="A70" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="35">
+        <v>14</v>
+      </c>
+      <c r="C70" s="15">
         <v>1</v>
       </c>
-      <c r="D70" s="47">
-        <v>6.81</v>
-      </c>
-      <c r="E70" s="47">
+      <c r="D70" s="16">
+        <v>10.02</v>
+      </c>
+      <c r="E70" s="16">
         <f t="shared" si="9"/>
-        <v>6.81</v>
-      </c>
-      <c r="F70" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="49" t="str">
+        <v>10.02</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I70" s="46"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -4580,31 +4606,31 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A71" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="39">
-        <v>14</v>
-      </c>
-      <c r="C71" s="19">
+      <c r="A71" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="14">
+        <v>12</v>
+      </c>
+      <c r="C71" s="15">
         <v>1</v>
       </c>
-      <c r="D71" s="20">
-        <v>10.02</v>
-      </c>
-      <c r="E71" s="20">
+      <c r="D71" s="16">
+        <v>7.22</v>
+      </c>
+      <c r="E71" s="16">
         <f t="shared" si="9"/>
-        <v>10.02</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="22" t="str">
+        <v>7.22</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I71" s="19"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4625,30 +4651,30 @@
     </row>
     <row r="72" spans="1:26" ht="19.5" customHeight="1">
       <c r="A72" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" s="18">
-        <v>12</v>
-      </c>
-      <c r="C72" s="19">
+        <v>97</v>
+      </c>
+      <c r="B72" s="35">
+        <v>2</v>
+      </c>
+      <c r="C72" s="33">
         <v>1</v>
       </c>
-      <c r="D72" s="20">
-        <v>7.22</v>
-      </c>
-      <c r="E72" s="20">
+      <c r="D72" s="36">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E72" s="16">
         <f t="shared" si="9"/>
-        <v>7.22</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="22" t="str">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I72" s="19"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4668,31 +4694,31 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A73" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="39">
+      <c r="A73" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="14">
         <v>2</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="15">
         <v>1</v>
       </c>
-      <c r="D73" s="40">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="E73" s="20">
+      <c r="D73" s="16">
+        <v>7.86</v>
+      </c>
+      <c r="E73" s="16">
         <f t="shared" si="9"/>
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="22" t="str">
+        <v>7.86</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I73" s="19"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4712,31 +4738,31 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A74" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="18">
-        <v>2</v>
-      </c>
-      <c r="C74" s="19">
+      <c r="A74" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="14">
         <v>1</v>
       </c>
-      <c r="D74" s="20">
-        <v>7.86</v>
-      </c>
-      <c r="E74" s="20">
+      <c r="C74" s="15">
+        <v>1</v>
+      </c>
+      <c r="D74" s="16">
+        <v>9.14</v>
+      </c>
+      <c r="E74" s="16">
         <f t="shared" si="9"/>
-        <v>7.86</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="22" t="str">
+        <v>9.14</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I74" s="19"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4756,31 +4782,31 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A75" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="18">
+      <c r="A75" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="14">
         <v>1</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="15">
         <v>1</v>
       </c>
-      <c r="D75" s="20">
-        <v>9.14</v>
-      </c>
-      <c r="E75" s="20">
+      <c r="D75" s="16">
+        <v>8.91</v>
+      </c>
+      <c r="E75" s="16">
         <f t="shared" si="9"/>
-        <v>9.14</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="22" t="str">
+        <v>8.91</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
       </c>
-      <c r="I75" s="19"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4800,31 +4826,18 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A76" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="18">
-        <v>1</v>
-      </c>
-      <c r="C76" s="19">
-        <v>1</v>
-      </c>
-      <c r="D76" s="20">
-        <v>8.91</v>
-      </c>
-      <c r="E76" s="20">
-        <f t="shared" si="9"/>
-        <v>8.91</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="22" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.mcmaster</v>
-      </c>
-      <c r="I76" s="19"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="16">
+        <f>SUM(E48:E75)</f>
+        <v>156.13999999999996</v>
+      </c>
+      <c r="F76" s="46"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -4844,18 +4857,17 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="20">
-        <f>SUM(E49:E76)</f>
-        <v>156.13999999999996</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="19"/>
+      <c r="A77" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -4875,17 +4887,31 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A78" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="33"/>
+      <c r="A78" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1</v>
+      </c>
+      <c r="C78" s="15">
+        <v>1</v>
+      </c>
+      <c r="D78" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="E78" s="16">
+        <f t="shared" ref="E78:E93" si="10">D78*C78</f>
+        <v>4.99</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="18" t="str">
+        <f t="shared" ref="H78:H93" si="11">IF(F78&gt;0,LEFT(F78,20),"ZZZ")</f>
+        <v>https://www.servocit</v>
+      </c>
+      <c r="I78" s="15"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -4905,31 +4931,31 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A79" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="18">
-        <v>1</v>
-      </c>
-      <c r="C79" s="19">
-        <v>1</v>
-      </c>
-      <c r="D79" s="20">
-        <v>4.99</v>
-      </c>
-      <c r="E79" s="20">
-        <f t="shared" ref="E79:E94" si="10">D79*C79</f>
-        <v>4.99</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="22" t="str">
-        <f t="shared" ref="H79:H94" si="11">IF(F79&gt;0,LEFT(F79,20),"ZZZ")</f>
+      <c r="A79" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="14">
+        <v>3</v>
+      </c>
+      <c r="C79" s="15">
+        <v>3</v>
+      </c>
+      <c r="D79" s="16">
+        <v>14.99</v>
+      </c>
+      <c r="E79" s="16">
+        <f t="shared" si="10"/>
+        <v>44.97</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="H79" s="18" t="str">
+        <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I79" s="19"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4949,31 +4975,31 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A80" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="18">
-        <v>3</v>
-      </c>
-      <c r="C80" s="19">
-        <v>3</v>
-      </c>
-      <c r="D80" s="20">
-        <v>14.99</v>
-      </c>
-      <c r="E80" s="20">
+      <c r="A80" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="14">
+        <v>8</v>
+      </c>
+      <c r="C80" s="15">
+        <v>8</v>
+      </c>
+      <c r="D80" s="16">
+        <v>9.99</v>
+      </c>
+      <c r="E80" s="16">
         <f t="shared" si="10"/>
-        <v>44.97</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="22" t="str">
+        <v>79.92</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I80" s="19"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4993,31 +5019,31 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A81" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="18">
-        <v>8</v>
-      </c>
-      <c r="C81" s="19">
-        <v>8</v>
-      </c>
-      <c r="D81" s="20">
-        <v>9.99</v>
-      </c>
-      <c r="E81" s="20">
+      <c r="A81" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="14">
+        <v>2</v>
+      </c>
+      <c r="C81" s="15">
+        <v>2</v>
+      </c>
+      <c r="D81" s="16">
+        <v>8.69</v>
+      </c>
+      <c r="E81" s="16">
         <f t="shared" si="10"/>
-        <v>79.92</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="22" t="str">
+        <v>17.38</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I81" s="19"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -5037,31 +5063,31 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A82" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="18">
-        <v>2</v>
-      </c>
-      <c r="C82" s="19">
-        <v>2</v>
-      </c>
-      <c r="D82" s="20">
-        <v>8.69</v>
-      </c>
-      <c r="E82" s="20">
+      <c r="A82" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="14">
+        <v>1</v>
+      </c>
+      <c r="C82" s="15">
+        <v>1</v>
+      </c>
+      <c r="D82" s="16">
+        <v>39.99</v>
+      </c>
+      <c r="E82" s="16">
         <f t="shared" si="10"/>
-        <v>17.38</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="22" t="str">
+        <v>39.99</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I82" s="19"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -5081,31 +5107,31 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A83" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" s="18">
+      <c r="A83" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="14">
         <v>1</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="15">
         <v>1</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="16">
         <v>39.99</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="16">
         <f t="shared" si="10"/>
         <v>39.99</v>
       </c>
-      <c r="F83" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="22" t="str">
+      <c r="F83" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I83" s="19"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -5125,31 +5151,31 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A84" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="18">
+      <c r="A84" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="14">
         <v>1</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="15">
         <v>1</v>
       </c>
-      <c r="D84" s="20">
-        <v>39.99</v>
-      </c>
-      <c r="E84" s="20">
+      <c r="D84" s="16">
+        <v>3.99</v>
+      </c>
+      <c r="E84" s="16">
         <f t="shared" si="10"/>
-        <v>39.99</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="22" t="str">
+        <v>3.99</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I84" s="19"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -5169,31 +5195,31 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A85" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="18">
+      <c r="A85" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="14">
         <v>1</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="15">
         <v>1</v>
       </c>
-      <c r="D85" s="20">
-        <v>3.99</v>
-      </c>
-      <c r="E85" s="20">
+      <c r="D85" s="16">
+        <v>4.09</v>
+      </c>
+      <c r="E85" s="16">
         <f t="shared" si="10"/>
-        <v>3.99</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="22" t="str">
+        <v>4.09</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I85" s="19"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -5213,31 +5239,31 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A86" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="18">
+      <c r="A86" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="14">
         <v>1</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C86" s="15">
         <v>1</v>
       </c>
-      <c r="D86" s="20">
-        <v>4.09</v>
-      </c>
-      <c r="E86" s="20">
+      <c r="D86" s="16">
+        <v>6.99</v>
+      </c>
+      <c r="E86" s="16">
         <f t="shared" si="10"/>
-        <v>4.09</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="22" t="str">
+        <v>6.99</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I86" s="19"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5257,31 +5283,31 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A87" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="18">
-        <v>1</v>
-      </c>
-      <c r="C87" s="19">
-        <v>1</v>
-      </c>
-      <c r="D87" s="20">
-        <v>6.99</v>
-      </c>
-      <c r="E87" s="20">
+      <c r="A87" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="14">
+        <v>4</v>
+      </c>
+      <c r="C87" s="15">
+        <v>2</v>
+      </c>
+      <c r="D87" s="16">
+        <v>2.79</v>
+      </c>
+      <c r="E87" s="16">
         <f t="shared" si="10"/>
-        <v>6.99</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="22" t="str">
+        <v>5.58</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I87" s="19"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -5300,100 +5326,100 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A88" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" s="18">
+    <row r="88" spans="1:26" s="58" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A88" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="35">
+        <v>2</v>
+      </c>
+      <c r="C88" s="33">
+        <v>1</v>
+      </c>
+      <c r="D88" s="36">
+        <v>16</v>
+      </c>
+      <c r="E88" s="36">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="F88" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G88" s="68"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="33"/>
+    </row>
+    <row r="89" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A89" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="35">
         <v>4</v>
       </c>
-      <c r="C88" s="19">
-        <v>2</v>
-      </c>
-      <c r="D88" s="20">
-        <v>2.79</v>
-      </c>
-      <c r="E88" s="20">
+      <c r="C89" s="33">
+        <v>4</v>
+      </c>
+      <c r="D89" s="16">
+        <v>6.99</v>
+      </c>
+      <c r="E89" s="16">
         <f t="shared" si="10"/>
-        <v>5.58</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="22" t="str">
+        <v>27.96</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-    </row>
-    <row r="89" spans="1:26" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A89" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" s="39">
-        <v>2</v>
-      </c>
-      <c r="C89" s="37">
+      <c r="I89" s="15"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+    </row>
+    <row r="90" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A90" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="14">
         <v>1</v>
       </c>
-      <c r="D89" s="40">
-        <v>16</v>
-      </c>
-      <c r="E89" s="40">
+      <c r="C90" s="15">
+        <v>1</v>
+      </c>
+      <c r="D90" s="16">
+        <v>6.39</v>
+      </c>
+      <c r="E90" s="16">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="F89" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="G89" s="72"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="37"/>
-    </row>
-    <row r="90" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A90" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="39">
-        <v>4</v>
-      </c>
-      <c r="C90" s="37">
-        <v>4</v>
-      </c>
-      <c r="D90" s="20">
-        <v>6.99</v>
-      </c>
-      <c r="E90" s="20">
-        <f t="shared" si="10"/>
-        <v>27.96</v>
-      </c>
-      <c r="F90" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G90" s="19"/>
-      <c r="H90" s="22" t="str">
+        <v>6.39</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I90" s="19"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -5413,31 +5439,31 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A91" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="18">
-        <v>1</v>
-      </c>
-      <c r="C91" s="19">
-        <v>1</v>
-      </c>
-      <c r="D91" s="20">
-        <v>6.39</v>
-      </c>
-      <c r="E91" s="20">
+      <c r="A91" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="14">
+        <v>2</v>
+      </c>
+      <c r="C91" s="15">
+        <v>2</v>
+      </c>
+      <c r="D91" s="16">
+        <v>6.99</v>
+      </c>
+      <c r="E91" s="16">
         <f t="shared" si="10"/>
-        <v>6.39</v>
-      </c>
-      <c r="F91" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G91" s="19"/>
-      <c r="H91" s="22" t="str">
+        <v>13.98</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I91" s="19"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -5457,31 +5483,31 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A92" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="18">
-        <v>2</v>
-      </c>
-      <c r="C92" s="19">
-        <v>2</v>
-      </c>
-      <c r="D92" s="20">
-        <v>6.99</v>
-      </c>
-      <c r="E92" s="20">
+      <c r="A92" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="14">
+        <v>1</v>
+      </c>
+      <c r="C92" s="15">
+        <v>1</v>
+      </c>
+      <c r="D92" s="16">
+        <v>5.99</v>
+      </c>
+      <c r="E92" s="16">
         <f t="shared" si="10"/>
-        <v>13.98</v>
-      </c>
-      <c r="F92" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92" s="19"/>
-      <c r="H92" s="22" t="str">
+        <v>5.99</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="15"/>
+      <c r="H92" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I92" s="19"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5501,31 +5527,31 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A93" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="18">
+      <c r="A93" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="14">
         <v>1</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C93" s="15">
         <v>1</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="16">
         <v>5.99</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="16">
         <f t="shared" si="10"/>
         <v>5.99</v>
       </c>
-      <c r="F93" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="22" t="str">
+      <c r="F93" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G93" s="15"/>
+      <c r="H93" s="18" t="str">
         <f t="shared" si="11"/>
         <v>https://www.servocit</v>
       </c>
-      <c r="I93" s="19"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -5544,391 +5570,374 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A94" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B94" s="18">
+    <row r="94" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A94" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="35">
         <v>1</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C94" s="33">
         <v>1</v>
       </c>
-      <c r="D94" s="20">
-        <v>5.99</v>
-      </c>
-      <c r="E94" s="20">
-        <f t="shared" si="10"/>
-        <v>5.99</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G94" s="19"/>
-      <c r="H94" s="22" t="str">
-        <f t="shared" si="11"/>
+      <c r="D94" s="36">
+        <v>25</v>
+      </c>
+      <c r="E94" s="36">
+        <v>25</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="33"/>
+    </row>
+    <row r="95" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A95" s="34"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="36">
+        <f>SUM(E78:E94)</f>
+        <v>349.20000000000005</v>
+      </c>
+      <c r="F95" s="55"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="18" t="str">
+        <f>IF(F90&gt;0,LEFT(F90,20),"ZZZ")</f>
         <v>https://www.servocit</v>
       </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-    </row>
-    <row r="95" spans="1:26" s="52" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="39">
+      <c r="I95" s="33"/>
+    </row>
+    <row r="96" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A96" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+    </row>
+    <row r="97" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A97" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="35">
         <v>1</v>
       </c>
-      <c r="C95" s="37">
+      <c r="C97" s="35">
         <v>1</v>
       </c>
-      <c r="D95" s="40">
-        <v>25</v>
-      </c>
-      <c r="E95" s="40">
-        <v>25</v>
-      </c>
-      <c r="F95" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G95" s="19"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="37"/>
-    </row>
-    <row r="96" spans="1:26" s="66" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A96" s="38"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40">
-        <f>SUM(E79:E95)</f>
-        <v>349.20000000000005</v>
-      </c>
-      <c r="F96" s="59"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="22" t="str">
-        <f>IF(F91&gt;0,LEFT(F91,20),"ZZZ")</f>
-        <v>https://www.servocit</v>
-      </c>
-      <c r="I96" s="37"/>
-    </row>
-    <row r="97" spans="1:26" s="66" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A97" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-    </row>
-    <row r="98" spans="1:26" s="66" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A98" s="38" t="s">
+      <c r="D97" s="36">
+        <v>20</v>
+      </c>
+      <c r="E97" s="36">
+        <f t="shared" ref="E97:E98" si="12">D97*C97</f>
+        <v>20</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+    </row>
+    <row r="98" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A98" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B98" s="39">
+      <c r="B98" s="35">
         <v>1</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="35">
         <v>1</v>
       </c>
-      <c r="D98" s="40">
-        <v>20</v>
-      </c>
-      <c r="E98" s="40">
-        <f t="shared" ref="E98:E99" si="12">D98*C98</f>
-        <v>20</v>
-      </c>
-      <c r="F98" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-    </row>
-    <row r="99" spans="1:26" s="66" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A99" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B99" s="39">
-        <v>1</v>
-      </c>
-      <c r="C99" s="39">
-        <v>1</v>
-      </c>
-      <c r="D99" s="47">
+      <c r="D98" s="43">
         <v>1.5</v>
       </c>
-      <c r="E99" s="40">
+      <c r="E98" s="36">
         <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
-      <c r="F99" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-    </row>
-    <row r="100" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A100" s="38"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40">
-        <f>SUM((E98:E99))</f>
+      <c r="F98" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+    </row>
+    <row r="99" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A99" s="34"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="36">
+        <f>SUM((E97:E98))</f>
         <v>21.5</v>
       </c>
-      <c r="F100" s="59"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="22" t="str">
-        <f>IF(F95&gt;0,LEFT(F95,20),"ZZZ")</f>
+      <c r="F99" s="55"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="18" t="str">
+        <f>IF(F94&gt;0,LEFT(F94,20),"ZZZ")</f>
         <v>https://www.servocit</v>
       </c>
-      <c r="I100" s="19"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-    </row>
-    <row r="101" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A101" s="45" t="s">
+      <c r="I99" s="15"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+    </row>
+    <row r="100" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A100" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-    </row>
-    <row r="102" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A102" s="38" t="s">
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+    </row>
+    <row r="101" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A101" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="39">
+      <c r="B101" s="35">
+        <v>3</v>
+      </c>
+      <c r="C101" s="35">
         <v>1</v>
       </c>
-      <c r="C102" s="39">
+      <c r="D101" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="E101" s="36">
+        <f t="shared" ref="E101:E104" si="13">D101*C101</f>
+        <v>1.5</v>
+      </c>
+      <c r="F101" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+    </row>
+    <row r="102" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A102" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="35">
         <v>1</v>
       </c>
-      <c r="D102" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="E102" s="40">
-        <f t="shared" ref="E102:E105" si="13">D102*C102</f>
-        <v>1.5</v>
-      </c>
-      <c r="F102" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-    </row>
-    <row r="103" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A103" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B103" s="39">
+      <c r="C102" s="35">
         <v>1</v>
       </c>
-      <c r="C103" s="39">
-        <v>1</v>
-      </c>
-      <c r="D103" s="47">
+      <c r="D102" s="43">
         <v>11.95</v>
       </c>
-      <c r="E103" s="40">
+      <c r="E102" s="36">
         <f t="shared" si="13"/>
         <v>11.95</v>
       </c>
-      <c r="F103" s="43" t="s">
+      <c r="F102" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-    </row>
-    <row r="104" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A104" s="38" t="s">
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A103" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="39">
+      <c r="B103" s="35">
         <v>1</v>
       </c>
-      <c r="C104" s="39">
+      <c r="C103" s="35">
         <v>1</v>
       </c>
-      <c r="D104" s="47">
+      <c r="D103" s="43">
         <v>11.95</v>
       </c>
-      <c r="E104" s="40">
+      <c r="E103" s="36">
         <f t="shared" si="13"/>
         <v>11.95</v>
       </c>
-      <c r="F104" s="43" t="s">
+      <c r="F103" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-    </row>
-    <row r="105" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A105" s="38" t="s">
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+    </row>
+    <row r="104" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A104" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="39">
+      <c r="B104" s="35">
         <v>1</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C104" s="35">
         <v>1</v>
       </c>
-      <c r="D105" s="47">
+      <c r="D104" s="43">
         <v>11.95</v>
       </c>
-      <c r="E105" s="40">
+      <c r="E104" s="36">
         <f t="shared" si="13"/>
         <v>11.95</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F104" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-    </row>
-    <row r="106" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A106" s="38" t="s">
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+    </row>
+    <row r="105" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A105" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B106" s="39">
+      <c r="B105" s="35">
         <v>1</v>
       </c>
-      <c r="C106" s="39">
+      <c r="C105" s="35">
         <v>1</v>
       </c>
-      <c r="D106" s="39">
+      <c r="D105" s="35">
         <v>0.69</v>
       </c>
-      <c r="E106" s="40">
-        <f t="shared" ref="E106:E108" si="14">D106*C106</f>
+      <c r="E105" s="36">
+        <f t="shared" ref="E105:E107" si="14">D105*C105</f>
         <v>0.69</v>
       </c>
-      <c r="F106" s="59" t="s">
+      <c r="F105" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-    </row>
-    <row r="107" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A107" s="38" t="s">
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+    </row>
+    <row r="106" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A106" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B107" s="39">
+      <c r="B106" s="35">
         <v>2</v>
       </c>
-      <c r="C107" s="39">
+      <c r="C106" s="35">
         <v>2</v>
       </c>
-      <c r="D107" s="39">
+      <c r="D106" s="35">
         <v>0.44</v>
       </c>
-      <c r="E107" s="40">
-        <f t="shared" ref="E107" si="15">D107*C107</f>
+      <c r="E106" s="36">
+        <f t="shared" ref="E106" si="15">D106*C106</f>
         <v>0.88</v>
       </c>
-      <c r="F107" s="59" t="s">
+      <c r="F106" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-    </row>
-    <row r="108" spans="1:26" s="51" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A108" s="38" t="s">
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+    </row>
+    <row r="107" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A107" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B108" s="39">
+      <c r="B107" s="35">
         <v>2</v>
       </c>
-      <c r="C108" s="39">
+      <c r="C107" s="35">
         <v>2</v>
       </c>
-      <c r="D108" s="39">
+      <c r="D107" s="35">
         <v>0.44</v>
       </c>
-      <c r="E108" s="40">
+      <c r="E107" s="36">
         <f t="shared" si="14"/>
         <v>0.88</v>
       </c>
-      <c r="F108" s="59" t="s">
+      <c r="F107" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-    </row>
-    <row r="109" spans="1:26" s="52" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A109" s="38"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="85">
-        <f>SUM(E102:E108)</f>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+    </row>
+    <row r="108" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A108" s="34"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="62">
+        <f>SUM(E101:E107)</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-    </row>
-    <row r="110" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A110" s="51"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+    </row>
+    <row r="109" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A109" s="47"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109" s="51">
+        <f>SUM(E108,E99,E95,E76,E46,E40,E14)</f>
+        <v>1224.6500000000001</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+    </row>
+    <row r="110" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="E110" s="55">
-        <f>SUM(E109,E100,E96,E77,E47,E44,E40,E14)</f>
-        <v>1261.1500000000001</v>
-      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -29332,57 +29341,29 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
-    <row r="977" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A977" s="1"/>
-      <c r="B977" s="1"/>
-      <c r="C977" s="1"/>
-      <c r="D977" s="1"/>
-      <c r="E977" s="1"/>
-      <c r="G977" s="1"/>
-      <c r="H977" s="1"/>
-      <c r="I977" s="1"/>
-      <c r="J977" s="1"/>
-      <c r="K977" s="1"/>
-      <c r="L977" s="1"/>
-      <c r="M977" s="1"/>
-      <c r="N977" s="1"/>
-      <c r="O977" s="1"/>
-      <c r="P977" s="1"/>
-      <c r="Q977" s="1"/>
-      <c r="R977" s="1"/>
-      <c r="S977" s="1"/>
-      <c r="T977" s="1"/>
-      <c r="U977" s="1"/>
-      <c r="V977" s="1"/>
-      <c r="W977" s="1"/>
-      <c r="X977" s="1"/>
-      <c r="Y977" s="1"/>
-      <c r="Z977" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z100" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z100">
-      <sortCondition ref="H2:H100"/>
-      <sortCondition ref="A2:A100"/>
+  <autoFilter ref="A2:Z99" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z99">
+      <sortCondition ref="H2:H99"/>
+      <sortCondition ref="A2:A99"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="19">
-    <mergeCell ref="F89:G89"/>
+  <mergeCells count="18">
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F44:G44"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
@@ -29395,53 +29376,53 @@
     <hyperlink ref="F33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="F34" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="F42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F46" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F49" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F79" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F80" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F81" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F82" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F83" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F84" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F85" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F86" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F87" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F88" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F90" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F91" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F92" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F93" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F94" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F95" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F78" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F79" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F80" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F81" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F82" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F83" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F84" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F85" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F86" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F87" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F89" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F90" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F91" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F92" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F93" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F94" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="F35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="F43" r:id="rId27" xr:uid="{454FB29B-EB5B-45E2-9934-2869B74B5DF9}"/>
-    <hyperlink ref="F76" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F75" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F74" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F73" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F72" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F71" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F70" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F69" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F68" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F67" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F66" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F65" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F64" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F63" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F62" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F61" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F57" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F50" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F75" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F74" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F73" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F72" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F71" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F70" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F69" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F68" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F67" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F66" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F65" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F64" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F63" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F62" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F61" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F59" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F55" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F51" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F50" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F49" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="F39" r:id="rId55" display="https://www.amazon.com/EDGELEC-Breadboard-1pin-1pin-Connector-Multicolored/dp/B07GCZBH51/ref=sr_1_6?dchild=1&amp;keywords=Dupont%2B2.54mm%2B2-Pin%2BTwisted%2Bon%2BFemale%2Bto%2BFemale&amp;qid=1623348565&amp;sr=8-6&amp;th=1" xr:uid="{360F3D8C-2ED6-4ECE-BE7F-756962E0CADC}"/>
     <hyperlink ref="F7" r:id="rId56" xr:uid="{7ADAA5AF-A176-4CDB-B186-88D79DA3E067}"/>
     <hyperlink ref="F31" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
@@ -29461,12 +29442,15 @@
     <hyperlink ref="F9" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F17" r:id="rId72" xr:uid="{AE212094-AA82-4C0C-AF1E-4B51D8F797FA}"/>
     <hyperlink ref="F18" r:id="rId73" xr:uid="{11BE5682-BF9B-4375-8CE6-F3E0F91E703D}"/>
-    <hyperlink ref="F89" r:id="rId74" xr:uid="{925FCD95-4665-4481-98DD-84FCC604B9F9}"/>
-    <hyperlink ref="F98" r:id="rId75" xr:uid="{F4B34013-2538-47A6-AA92-2B4AD39FF242}"/>
-    <hyperlink ref="F99" r:id="rId76" xr:uid="{6A01326A-3ECC-488B-A6D3-9309B5EBA0BE}"/>
+    <hyperlink ref="F88" r:id="rId74" xr:uid="{925FCD95-4665-4481-98DD-84FCC604B9F9}"/>
+    <hyperlink ref="F97" r:id="rId75" xr:uid="{F4B34013-2538-47A6-AA92-2B4AD39FF242}"/>
+    <hyperlink ref="F98" r:id="rId76" xr:uid="{6A01326A-3ECC-488B-A6D3-9309B5EBA0BE}"/>
+    <hyperlink ref="F37" r:id="rId77" xr:uid="{A09FCC8C-EED4-4230-809F-AB1E9B36A50C}"/>
+    <hyperlink ref="F101" r:id="rId78" xr:uid="{240D3D57-31EF-4068-B699-D4755C52F2ED}"/>
+    <hyperlink ref="F36" r:id="rId79" xr:uid="{3A737759-F3C2-43EC-A0BD-11C12A560D0A}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId77"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId80"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/JoesDrive_V2 BOM.xlsx
+++ b/JoesDrive_V2 BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42c44b83a4bbc46/Documents/3D Printing/Robotics and Androids/BB8/James BB8 Project v5 JDV2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvanduse\Downloads\James BB8 Project v5 JDV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="11_BE9DE99AA47B2B8EE8586A6619BF5A40F3477B36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{594AB6A1-9D2B-4E6F-B2A4-94A8A0C8299C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA320CB1-C9EC-45E2-A8E5-8FD23FC1B948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$2:$Z$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$2:$Z$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="193">
   <si>
     <t>BOM</t>
   </si>
@@ -986,6 +986,18 @@
   <si>
     <t>Or you can Purchase Adafruit Feather Proto M0</t>
   </si>
+  <si>
+    <t>https://www.mcmaster.com/90592A022</t>
+  </si>
+  <si>
+    <t>M8 Nut (100pk)</t>
+  </si>
+  <si>
+    <t>M8 x 65mm (10pk)</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90854A415</t>
+  </si>
 </sst>
 </file>
 
@@ -1402,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1592,44 +1604,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1662,6 +1638,45 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1883,13 +1898,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z976"/>
+  <dimension ref="A1:Z978"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36:G36"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="19.5" customHeight="1"/>
@@ -1907,17 +1922,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1960,8 +1975,8 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6">
-        <f>SUM(E108,E99,E95,E76,E46,E40,E14)</f>
-        <v>1224.6500000000001</v>
+        <f>SUM(E110,E101,E97,E78,E46,E40,E14)</f>
+        <v>1241.9900000000002</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2012,31 +2027,31 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="65">
         <v>1</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="66">
         <v>1</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="67">
         <v>24.95</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="67">
         <f t="shared" ref="E4:E13" si="0">D4*C4</f>
         <v>24.95</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="81" t="str">
+      <c r="G4" s="66"/>
+      <c r="H4" s="69" t="str">
         <f t="shared" ref="H4:H9" si="1">IF(F4&gt;0,LEFT(F4,20),"ZZZ")</f>
         <v>https://www.adafruit</v>
       </c>
-      <c r="I4" s="78"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2056,28 +2071,28 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="70">
         <v>1</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="71">
         <v>1</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="72">
         <v>19.95</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="67">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="83"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -3089,10 +3104,10 @@
         <f t="shared" ref="E32:E34" si="4">D32*C32</f>
         <v>48.34</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="72"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="40"/>
       <c r="I32" s="15"/>
       <c r="J32" s="1"/>
@@ -3130,10 +3145,10 @@
         <f>D33*C33</f>
         <v>5.99</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="72"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="40"/>
       <c r="I33" s="15"/>
       <c r="J33" s="1"/>
@@ -3171,10 +3186,10 @@
         <f t="shared" si="4"/>
         <v>11.99</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="72"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="40"/>
       <c r="I34" s="15"/>
       <c r="J34" s="1"/>
@@ -3212,10 +3227,10 @@
         <f t="shared" ref="E35" si="5">D35*C35</f>
         <v>5.6</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="72"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="40"/>
       <c r="I35" s="15"/>
       <c r="J35" s="1"/>
@@ -3253,10 +3268,10 @@
         <f t="shared" ref="E36:E38" si="6">D36*C36</f>
         <v>8.99</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="72"/>
+      <c r="G36" s="85"/>
       <c r="H36" s="40"/>
       <c r="I36" s="33"/>
     </row>
@@ -3277,10 +3292,10 @@
         <f t="shared" si="6"/>
         <v>7.99</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="72"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="40"/>
       <c r="I37" s="33"/>
     </row>
@@ -3301,10 +3316,10 @@
         <f t="shared" si="6"/>
         <v>7.99</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="72"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="40"/>
       <c r="I38" s="33"/>
     </row>
@@ -3324,10 +3339,10 @@
       <c r="E39" s="16">
         <v>5</v>
       </c>
-      <c r="F39" s="73" t="s">
+      <c r="F39" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="G39" s="74"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="40"/>
       <c r="I39" s="15"/>
       <c r="J39" s="1"/>
@@ -3452,10 +3467,10 @@
       <c r="E43" s="16">
         <v>5</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="66"/>
+      <c r="G43" s="81"/>
       <c r="H43" s="18"/>
       <c r="I43" s="33"/>
     </row>
@@ -3506,10 +3521,10 @@
         <f>D45*C45</f>
         <v>58</v>
       </c>
-      <c r="F45" s="67" t="s">
+      <c r="F45" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="68"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="40" t="str">
         <f>IF(F45&gt;0,LEFT(F45,20),"ZZZ")</f>
         <v>https://www.dfrobot.</v>
@@ -3542,8 +3557,8 @@
         <f>SUM(E45)</f>
         <v>58</v>
       </c>
-      <c r="F46" s="69"/>
-      <c r="G46" s="70"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="40"/>
       <c r="I46" s="15"/>
       <c r="J46" s="1"/>
@@ -3611,12 +3626,12 @@
         <f t="shared" ref="E48:E49" si="7">D48*C48</f>
         <v>2.4</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="68"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="18" t="str">
-        <f t="shared" ref="H48:H75" si="8">IF(F48&gt;0,LEFT(F48,20),"ZZZ")</f>
+        <f t="shared" ref="H48:H76" si="8">IF(F48&gt;0,LEFT(F48,20),"ZZZ")</f>
         <v>https://www.mcmaster</v>
       </c>
       <c r="I48" s="15"/>
@@ -3655,10 +3670,10 @@
         <f t="shared" si="7"/>
         <v>2.94</v>
       </c>
-      <c r="F49" s="67" t="s">
+      <c r="F49" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="68"/>
+      <c r="G49" s="76"/>
       <c r="H49" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
@@ -3698,10 +3713,10 @@
       <c r="E50" s="36">
         <v>2.19</v>
       </c>
-      <c r="F50" s="67" t="s">
+      <c r="F50" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="68"/>
+      <c r="G50" s="76"/>
       <c r="H50" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
@@ -3739,13 +3754,13 @@
         <v>1.2</v>
       </c>
       <c r="E51" s="16">
-        <f t="shared" ref="E51:E75" si="9">D51*C51</f>
+        <f t="shared" ref="E51:E77" si="9">D51*C51</f>
         <v>1.2</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F51" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="68"/>
+      <c r="G51" s="76"/>
       <c r="H51" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
@@ -3786,10 +3801,10 @@
         <f t="shared" si="9"/>
         <v>3.77</v>
       </c>
-      <c r="F52" s="67" t="s">
+      <c r="F52" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="68"/>
+      <c r="G52" s="76"/>
       <c r="H52" s="18" t="str">
         <f t="shared" si="8"/>
         <v>https://www.mcmaster</v>
@@ -4737,69 +4752,49 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="19.5" customHeight="1">
+    <row r="74" spans="1:26" s="63" customFormat="1" ht="19.5" customHeight="1">
       <c r="A74" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="35">
+        <v>4</v>
+      </c>
+      <c r="C74" s="33">
+        <v>1</v>
+      </c>
+      <c r="D74" s="36">
+        <v>6.14</v>
+      </c>
+      <c r="E74" s="36">
+        <f t="shared" si="9"/>
+        <v>6.14</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G74" s="33"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A75" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B75" s="14">
         <v>1</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C75" s="15">
         <v>1</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <v>9.14</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <f t="shared" si="9"/>
         <v>9.14</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F75" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>https://www.mcmaster</v>
-      </c>
-      <c r="I74" s="15"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A75" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="14">
-        <v>1</v>
-      </c>
-      <c r="C75" s="15">
-        <v>1</v>
-      </c>
-      <c r="D75" s="16">
-        <v>8.91</v>
-      </c>
-      <c r="E75" s="16">
-        <f t="shared" si="9"/>
-        <v>8.91</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="18" t="str">
@@ -4826,17 +4821,30 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A76" s="38"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="36"/>
+      <c r="A76" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="14">
+        <v>1</v>
+      </c>
+      <c r="C76" s="15">
+        <v>1</v>
+      </c>
+      <c r="D76" s="16">
+        <v>8.91</v>
+      </c>
       <c r="E76" s="16">
-        <f>SUM(E48:E75)</f>
-        <v>156.13999999999996</v>
-      </c>
-      <c r="F76" s="46"/>
+        <f t="shared" si="9"/>
+        <v>8.91</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="G76" s="15"/>
-      <c r="H76" s="40"/>
+      <c r="H76" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>https://www.mcmaster</v>
+      </c>
       <c r="I76" s="15"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4856,61 +4864,42 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A77" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
+    <row r="77" spans="1:26" s="63" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A77" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="35">
+        <v>2</v>
+      </c>
+      <c r="C77" s="33">
+        <v>1</v>
+      </c>
+      <c r="D77" s="36">
+        <v>11.2</v>
+      </c>
+      <c r="E77" s="36">
+        <f t="shared" si="9"/>
+        <v>11.2</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="33"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="33"/>
     </row>
     <row r="78" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A78" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" s="14">
-        <v>1</v>
-      </c>
-      <c r="C78" s="15">
-        <v>1</v>
-      </c>
-      <c r="D78" s="16">
-        <v>4.99</v>
-      </c>
+      <c r="A78" s="38"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="16">
-        <f t="shared" ref="E78:E93" si="10">D78*C78</f>
-        <v>4.99</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>107</v>
-      </c>
+        <f>SUM(E48:E77)</f>
+        <v>173.47999999999993</v>
+      </c>
+      <c r="F78" s="46"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="18" t="str">
-        <f t="shared" ref="H78:H93" si="11">IF(F78&gt;0,LEFT(F78,20),"ZZZ")</f>
-        <v>https://www.servocit</v>
-      </c>
+      <c r="H78" s="40"/>
       <c r="I78" s="15"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4931,31 +4920,17 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A79" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="14">
-        <v>3</v>
-      </c>
-      <c r="C79" s="15">
-        <v>3</v>
-      </c>
-      <c r="D79" s="16">
-        <v>14.99</v>
-      </c>
-      <c r="E79" s="16">
-        <f t="shared" si="10"/>
-        <v>44.97</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>https://www.servocit</v>
-      </c>
-      <c r="I79" s="15"/>
+      <c r="A79" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="29"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4976,27 +4951,27 @@
     </row>
     <row r="80" spans="1:26" ht="19.5" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B80" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C80" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D80" s="16">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="E80" s="16">
-        <f t="shared" si="10"/>
-        <v>79.92</v>
+        <f t="shared" ref="E80:E95" si="10">D80*C80</f>
+        <v>4.99</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H80:H95" si="11">IF(F80&gt;0,LEFT(F80,20),"ZZZ")</f>
         <v>https://www.servocit</v>
       </c>
       <c r="I80" s="15"/>
@@ -5020,23 +4995,23 @@
     </row>
     <row r="81" spans="1:26" ht="19.5" customHeight="1">
       <c r="A81" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B81" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="16">
-        <v>8.69</v>
+        <v>14.99</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="10"/>
-        <v>17.38</v>
+        <v>44.97</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="18" t="str">
@@ -5063,24 +5038,24 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A82" s="34" t="s">
-        <v>114</v>
+      <c r="A82" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="B82" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C82" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D82" s="16">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="10"/>
-        <v>39.99</v>
+        <v>79.92</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="18" t="str">
@@ -5107,24 +5082,24 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A83" s="34" t="s">
-        <v>116</v>
+      <c r="A83" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="B83" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="16">
-        <v>39.99</v>
+        <v>8.69</v>
       </c>
       <c r="E83" s="16">
         <f t="shared" si="10"/>
-        <v>39.99</v>
+        <v>17.38</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="18" t="str">
@@ -5151,8 +5126,8 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A84" s="13" t="s">
-        <v>118</v>
+      <c r="A84" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="B84" s="14">
         <v>1</v>
@@ -5161,14 +5136,14 @@
         <v>1</v>
       </c>
       <c r="D84" s="16">
-        <v>3.99</v>
+        <v>39.99</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="10"/>
-        <v>3.99</v>
+        <v>39.99</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="18" t="str">
@@ -5195,8 +5170,8 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A85" s="13" t="s">
-        <v>120</v>
+      <c r="A85" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="B85" s="14">
         <v>1</v>
@@ -5205,14 +5180,14 @@
         <v>1</v>
       </c>
       <c r="D85" s="16">
-        <v>4.09</v>
+        <v>39.99</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="10"/>
-        <v>4.09</v>
+        <v>39.99</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="18" t="str">
@@ -5240,7 +5215,7 @@
     </row>
     <row r="86" spans="1:26" ht="19.5" customHeight="1">
       <c r="A86" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B86" s="14">
         <v>1</v>
@@ -5249,14 +5224,14 @@
         <v>1</v>
       </c>
       <c r="D86" s="16">
-        <v>6.99</v>
+        <v>3.99</v>
       </c>
       <c r="E86" s="16">
         <f t="shared" si="10"/>
-        <v>6.99</v>
+        <v>3.99</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="18" t="str">
@@ -5283,24 +5258,24 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A87" s="34" t="s">
-        <v>124</v>
+      <c r="A87" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="B87" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="16">
-        <v>2.79</v>
+        <v>4.09</v>
       </c>
       <c r="E87" s="16">
         <f t="shared" si="10"/>
-        <v>5.58</v>
+        <v>4.09</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="18" t="str">
@@ -5326,49 +5301,69 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" s="58" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A88" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="35">
-        <v>2</v>
-      </c>
-      <c r="C88" s="33">
+    <row r="88" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A88" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="14">
         <v>1</v>
       </c>
-      <c r="D88" s="36">
-        <v>16</v>
-      </c>
-      <c r="E88" s="36">
+      <c r="C88" s="15">
+        <v>1</v>
+      </c>
+      <c r="D88" s="16">
+        <v>6.99</v>
+      </c>
+      <c r="E88" s="16">
         <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="F88" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="G88" s="68"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="33"/>
+        <v>6.99</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>https://www.servocit</v>
+      </c>
+      <c r="I88" s="15"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" ht="19.5" customHeight="1">
       <c r="A89" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="35">
+        <v>124</v>
+      </c>
+      <c r="B89" s="14">
         <v>4</v>
       </c>
-      <c r="C89" s="33">
-        <v>4</v>
+      <c r="C89" s="15">
+        <v>2</v>
       </c>
       <c r="D89" s="16">
-        <v>6.99</v>
+        <v>2.79</v>
       </c>
       <c r="E89" s="16">
         <f t="shared" si="10"/>
-        <v>27.96</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>127</v>
+        <v>5.58</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="18" t="str">
@@ -5394,69 +5389,49 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A90" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="14">
+    <row r="90" spans="1:26" s="58" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A90" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="35">
+        <v>2</v>
+      </c>
+      <c r="C90" s="33">
         <v>1</v>
       </c>
-      <c r="C90" s="15">
-        <v>1</v>
-      </c>
-      <c r="D90" s="16">
-        <v>6.39</v>
-      </c>
-      <c r="E90" s="16">
+      <c r="D90" s="36">
+        <v>16</v>
+      </c>
+      <c r="E90" s="36">
         <f t="shared" si="10"/>
-        <v>6.39</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>https://www.servocit</v>
-      </c>
-      <c r="I90" s="15"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F90" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G90" s="76"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="33"/>
     </row>
     <row r="91" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A91" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" s="14">
-        <v>2</v>
-      </c>
-      <c r="C91" s="15">
-        <v>2</v>
+      <c r="A91" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="35">
+        <v>4</v>
+      </c>
+      <c r="C91" s="33">
+        <v>4</v>
       </c>
       <c r="D91" s="16">
         <v>6.99</v>
       </c>
       <c r="E91" s="16">
         <f t="shared" si="10"/>
-        <v>13.98</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>131</v>
+        <v>27.96</v>
+      </c>
+      <c r="F91" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="18" t="str">
@@ -5484,7 +5459,7 @@
     </row>
     <row r="92" spans="1:26" ht="19.5" customHeight="1">
       <c r="A92" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B92" s="14">
         <v>1</v>
@@ -5493,14 +5468,14 @@
         <v>1</v>
       </c>
       <c r="D92" s="16">
-        <v>5.99</v>
+        <v>6.39</v>
       </c>
       <c r="E92" s="16">
         <f t="shared" si="10"/>
-        <v>5.99</v>
+        <v>6.39</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="18" t="str">
@@ -5528,23 +5503,23 @@
     </row>
     <row r="93" spans="1:26" ht="19.5" customHeight="1">
       <c r="A93" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B93" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="16">
-        <v>5.99</v>
+        <v>6.99</v>
       </c>
       <c r="E93" s="16">
         <f t="shared" si="10"/>
-        <v>5.99</v>
+        <v>13.98</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="18" t="str">
@@ -5570,221 +5545,261 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A94" s="34" t="s">
+    <row r="94" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A94" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="14">
+        <v>1</v>
+      </c>
+      <c r="C94" s="15">
+        <v>1</v>
+      </c>
+      <c r="D94" s="16">
+        <v>5.99</v>
+      </c>
+      <c r="E94" s="16">
+        <f t="shared" si="10"/>
+        <v>5.99</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="H94" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>https://www.servocit</v>
+      </c>
+      <c r="I94" s="15"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+    </row>
+    <row r="95" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A95" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="14">
+        <v>1</v>
+      </c>
+      <c r="C95" s="15">
+        <v>1</v>
+      </c>
+      <c r="D95" s="16">
+        <v>5.99</v>
+      </c>
+      <c r="E95" s="16">
+        <f t="shared" si="10"/>
+        <v>5.99</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="H95" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>https://www.servocit</v>
+      </c>
+      <c r="I95" s="15"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+    </row>
+    <row r="96" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A96" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B94" s="35">
+      <c r="B96" s="35">
         <v>1</v>
       </c>
-      <c r="C94" s="33">
+      <c r="C96" s="33">
         <v>1</v>
       </c>
-      <c r="D94" s="36">
+      <c r="D96" s="36">
         <v>25</v>
       </c>
-      <c r="E94" s="36">
+      <c r="E96" s="36">
         <v>25</v>
       </c>
-      <c r="F94" s="39" t="s">
+      <c r="F96" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G94" s="15"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="33"/>
-    </row>
-    <row r="95" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A95" s="34"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="36">
-        <f>SUM(E78:E94)</f>
+      <c r="G96" s="15"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="33"/>
+    </row>
+    <row r="97" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A97" s="34"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="36">
+        <f>SUM(E80:E96)</f>
         <v>349.20000000000005</v>
       </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="18" t="str">
-        <f>IF(F90&gt;0,LEFT(F90,20),"ZZZ")</f>
+      <c r="F97" s="55"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="18" t="str">
+        <f>IF(F92&gt;0,LEFT(F92,20),"ZZZ")</f>
         <v>https://www.servocit</v>
       </c>
-      <c r="I95" s="33"/>
-    </row>
-    <row r="96" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A96" s="41" t="s">
+      <c r="I97" s="33"/>
+    </row>
+    <row r="98" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A98" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-    </row>
-    <row r="97" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A97" s="34" t="s">
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+    </row>
+    <row r="99" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A99" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="35">
+      <c r="B99" s="35">
         <v>1</v>
       </c>
-      <c r="C97" s="35">
+      <c r="C99" s="35">
         <v>1</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D99" s="36">
         <v>20</v>
       </c>
-      <c r="E97" s="36">
-        <f t="shared" ref="E97:E98" si="12">D97*C97</f>
+      <c r="E99" s="36">
+        <f t="shared" ref="E99:E100" si="12">D99*C99</f>
         <v>20</v>
       </c>
-      <c r="F97" s="59" t="s">
+      <c r="F99" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-    </row>
-    <row r="98" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A98" s="34" t="s">
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+    </row>
+    <row r="100" spans="1:26" s="61" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A100" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B98" s="35">
+      <c r="B100" s="35">
         <v>1</v>
       </c>
-      <c r="C98" s="35">
+      <c r="C100" s="35">
         <v>1</v>
       </c>
-      <c r="D98" s="43">
+      <c r="D100" s="43">
         <v>1.5</v>
       </c>
-      <c r="E98" s="36">
+      <c r="E100" s="36">
         <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
-      <c r="F98" s="59" t="s">
+      <c r="F100" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-    </row>
-    <row r="99" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A99" s="34"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="36">
-        <f>SUM((E97:E98))</f>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A101" s="34"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="36">
+        <f>SUM((E99:E100))</f>
         <v>21.5</v>
       </c>
-      <c r="F99" s="55"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="18" t="str">
-        <f>IF(F94&gt;0,LEFT(F94,20),"ZZZ")</f>
+      <c r="F101" s="55"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="18" t="str">
+        <f>IF(F96&gt;0,LEFT(F96,20),"ZZZ")</f>
         <v>https://www.servocit</v>
       </c>
-      <c r="I99" s="15"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A100" s="41" t="s">
+      <c r="I101" s="15"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+    </row>
+    <row r="102" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A102" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-    </row>
-    <row r="101" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A101" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" s="35">
-        <v>3</v>
-      </c>
-      <c r="C101" s="35">
-        <v>1</v>
-      </c>
-      <c r="D101" s="36">
-        <v>1.5</v>
-      </c>
-      <c r="E101" s="36">
-        <f t="shared" ref="E101:E104" si="13">D101*C101</f>
-        <v>1.5</v>
-      </c>
-      <c r="F101" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-    </row>
-    <row r="102" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A102" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B102" s="35">
-        <v>1</v>
-      </c>
-      <c r="C102" s="35">
-        <v>1</v>
-      </c>
-      <c r="D102" s="43">
-        <v>11.95</v>
-      </c>
-      <c r="E102" s="36">
-        <f t="shared" si="13"/>
-        <v>11.95</v>
-      </c>
-      <c r="F102" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
     </row>
     <row r="103" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
       <c r="A103" s="34" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B103" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103" s="35">
         <v>1</v>
       </c>
-      <c r="D103" s="43">
-        <v>11.95</v>
+      <c r="D103" s="36">
+        <v>1.5</v>
       </c>
       <c r="E103" s="36">
-        <f t="shared" si="13"/>
-        <v>11.95</v>
-      </c>
-      <c r="F103" s="39" t="s">
-        <v>163</v>
+        <f t="shared" ref="E103:E106" si="13">D103*C103</f>
+        <v>1.5</v>
+      </c>
+      <c r="F103" s="59" t="s">
+        <v>142</v>
       </c>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
@@ -5792,7 +5807,7 @@
     </row>
     <row r="104" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
       <c r="A104" s="34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B104" s="35">
         <v>1</v>
@@ -5808,7 +5823,7 @@
         <v>11.95</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
@@ -5816,7 +5831,7 @@
     </row>
     <row r="105" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
       <c r="A105" s="34" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B105" s="35">
         <v>1</v>
@@ -5824,15 +5839,15 @@
       <c r="C105" s="35">
         <v>1</v>
       </c>
-      <c r="D105" s="35">
-        <v>0.69</v>
+      <c r="D105" s="43">
+        <v>11.95</v>
       </c>
       <c r="E105" s="36">
-        <f t="shared" ref="E105:E107" si="14">D105*C105</f>
-        <v>0.69</v>
-      </c>
-      <c r="F105" s="55" t="s">
-        <v>145</v>
+        <f t="shared" si="13"/>
+        <v>11.95</v>
+      </c>
+      <c r="F105" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
@@ -5840,23 +5855,23 @@
     </row>
     <row r="106" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
       <c r="A106" s="34" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B106" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="35">
-        <v>2</v>
-      </c>
-      <c r="D106" s="35">
-        <v>0.44</v>
+        <v>1</v>
+      </c>
+      <c r="D106" s="43">
+        <v>11.95</v>
       </c>
       <c r="E106" s="36">
-        <f t="shared" ref="E106" si="15">D106*C106</f>
-        <v>0.88</v>
-      </c>
-      <c r="F106" s="55" t="s">
-        <v>147</v>
+        <f t="shared" si="13"/>
+        <v>11.95</v>
+      </c>
+      <c r="F106" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
@@ -5864,107 +5879,101 @@
     </row>
     <row r="107" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
       <c r="A107" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B107" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="35">
-        <v>0.44</v>
+        <v>0.69</v>
       </c>
       <c r="E107" s="36">
-        <f t="shared" si="14"/>
-        <v>0.88</v>
+        <f t="shared" ref="E107:E109" si="14">D107*C107</f>
+        <v>0.69</v>
       </c>
       <c r="F107" s="55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
       <c r="I107" s="35"/>
     </row>
-    <row r="108" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A108" s="34"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="62">
-        <f>SUM(E101:E107)</f>
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F108" s="55"/>
+    <row r="108" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A108" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="35">
+        <v>2</v>
+      </c>
+      <c r="C108" s="35">
+        <v>2</v>
+      </c>
+      <c r="D108" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="E108" s="36">
+        <f t="shared" ref="E108" si="15">D108*C108</f>
+        <v>0.88</v>
+      </c>
+      <c r="F108" s="55" t="s">
+        <v>147</v>
+      </c>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
       <c r="I108" s="35"/>
     </row>
-    <row r="109" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A109" s="47"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="52" t="s">
+    <row r="109" spans="1:26" s="47" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A109" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="35">
+        <v>2</v>
+      </c>
+      <c r="C109" s="35">
+        <v>2</v>
+      </c>
+      <c r="D109" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="E109" s="36">
+        <f t="shared" si="14"/>
+        <v>0.88</v>
+      </c>
+      <c r="F109" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+    </row>
+    <row r="110" spans="1:26" s="48" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A110" s="34"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="62">
+        <f>SUM(E103:E109)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F110" s="55"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="111" spans="1:26" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A111" s="47"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="E109" s="51">
-        <f>SUM(E108,E99,E95,E76,E46,E40,E14)</f>
-        <v>1224.6500000000001</v>
-      </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-      <c r="Z109" s="1"/>
-    </row>
-    <row r="110" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
-      <c r="Y110" s="1"/>
-      <c r="Z110" s="1"/>
-    </row>
-    <row r="111" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="51">
+        <f>SUM(E110,E101,E97,E78,E46,E40,E14)</f>
+        <v>1241.9900000000002</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -29341,20 +29350,68 @@
       <c r="Y976" s="1"/>
       <c r="Z976" s="1"/>
     </row>
+    <row r="977" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A977" s="1"/>
+      <c r="B977" s="1"/>
+      <c r="C977" s="1"/>
+      <c r="D977" s="1"/>
+      <c r="E977" s="1"/>
+      <c r="G977" s="1"/>
+      <c r="H977" s="1"/>
+      <c r="I977" s="1"/>
+      <c r="J977" s="1"/>
+      <c r="K977" s="1"/>
+      <c r="L977" s="1"/>
+      <c r="M977" s="1"/>
+      <c r="N977" s="1"/>
+      <c r="O977" s="1"/>
+      <c r="P977" s="1"/>
+      <c r="Q977" s="1"/>
+      <c r="R977" s="1"/>
+      <c r="S977" s="1"/>
+      <c r="T977" s="1"/>
+      <c r="U977" s="1"/>
+      <c r="V977" s="1"/>
+      <c r="W977" s="1"/>
+      <c r="X977" s="1"/>
+      <c r="Y977" s="1"/>
+      <c r="Z977" s="1"/>
+    </row>
+    <row r="978" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A978" s="1"/>
+      <c r="B978" s="1"/>
+      <c r="C978" s="1"/>
+      <c r="D978" s="1"/>
+      <c r="E978" s="1"/>
+      <c r="G978" s="1"/>
+      <c r="H978" s="1"/>
+      <c r="I978" s="1"/>
+      <c r="J978" s="1"/>
+      <c r="K978" s="1"/>
+      <c r="L978" s="1"/>
+      <c r="M978" s="1"/>
+      <c r="N978" s="1"/>
+      <c r="O978" s="1"/>
+      <c r="P978" s="1"/>
+      <c r="Q978" s="1"/>
+      <c r="R978" s="1"/>
+      <c r="S978" s="1"/>
+      <c r="T978" s="1"/>
+      <c r="U978" s="1"/>
+      <c r="V978" s="1"/>
+      <c r="W978" s="1"/>
+      <c r="X978" s="1"/>
+      <c r="Y978" s="1"/>
+      <c r="Z978" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z99" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z99">
-      <sortCondition ref="H2:H99"/>
-      <sortCondition ref="A2:A99"/>
+  <autoFilter ref="A2:Z101" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z101">
+      <sortCondition ref="H2:H101"/>
+      <sortCondition ref="A2:A101"/>
     </sortState>
   </autoFilter>
   <mergeCells count="18">
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="F45:G45"/>
@@ -29367,6 +29424,12 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -29378,26 +29441,26 @@
     <hyperlink ref="F42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="F45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="F48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F78" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F79" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F80" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F81" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F82" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F83" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F84" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F85" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F86" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F87" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F89" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F90" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F91" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F92" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F93" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F94" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F80" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F81" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F82" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F83" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F84" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F85" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F86" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F87" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F88" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F89" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F91" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F92" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F93" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F94" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F95" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F96" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="F35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="F43" r:id="rId27" xr:uid="{454FB29B-EB5B-45E2-9934-2869B74B5DF9}"/>
-    <hyperlink ref="F75" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F74" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F76" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F75" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="F73" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="F72" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="F71" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
@@ -29442,15 +29505,16 @@
     <hyperlink ref="F9" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F17" r:id="rId72" xr:uid="{AE212094-AA82-4C0C-AF1E-4B51D8F797FA}"/>
     <hyperlink ref="F18" r:id="rId73" xr:uid="{11BE5682-BF9B-4375-8CE6-F3E0F91E703D}"/>
-    <hyperlink ref="F88" r:id="rId74" xr:uid="{925FCD95-4665-4481-98DD-84FCC604B9F9}"/>
-    <hyperlink ref="F97" r:id="rId75" xr:uid="{F4B34013-2538-47A6-AA92-2B4AD39FF242}"/>
-    <hyperlink ref="F98" r:id="rId76" xr:uid="{6A01326A-3ECC-488B-A6D3-9309B5EBA0BE}"/>
+    <hyperlink ref="F90" r:id="rId74" xr:uid="{925FCD95-4665-4481-98DD-84FCC604B9F9}"/>
+    <hyperlink ref="F99" r:id="rId75" xr:uid="{F4B34013-2538-47A6-AA92-2B4AD39FF242}"/>
+    <hyperlink ref="F100" r:id="rId76" xr:uid="{6A01326A-3ECC-488B-A6D3-9309B5EBA0BE}"/>
     <hyperlink ref="F37" r:id="rId77" xr:uid="{A09FCC8C-EED4-4230-809F-AB1E9B36A50C}"/>
-    <hyperlink ref="F101" r:id="rId78" xr:uid="{240D3D57-31EF-4068-B699-D4755C52F2ED}"/>
+    <hyperlink ref="F103" r:id="rId78" xr:uid="{240D3D57-31EF-4068-B699-D4755C52F2ED}"/>
     <hyperlink ref="F36" r:id="rId79" xr:uid="{3A737759-F3C2-43EC-A0BD-11C12A560D0A}"/>
+    <hyperlink ref="F74" r:id="rId80" xr:uid="{CEA8D239-A039-4B44-8A3D-32C3480AE38F}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId80"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId81"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
